--- a/_sync/AI学习资源.xlsx
+++ b/_sync/AI学习资源.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222AE0DC-3DA7-4646-AB0F-3CF26701036F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F567391D-BCFE-4951-A66D-E342626F492B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>PyTorch 中文教程&amp; 文档 - ApacheCN</t>
   </si>
@@ -137,6 +137,13 @@
       </rPr>
       <t>这可能是B站最适合零基础入门的深度学习PyTorch教程 </t>
     </r>
+  </si>
+  <si>
+    <t>LSTM是一种循环神经网络（RNN）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0官方教程</t>
   </si>
 </sst>
 </file>
@@ -497,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,6 +544,9 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -599,6 +609,11 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -620,8 +635,9 @@
     <hyperlink ref="A21" r:id="rId14" display="https://www.baidu.com/link?url=hiZ_TwFTkQXs6XZsYHEjmoKPNnHb4IgfV0JqYxH6hwbdJIerqWKvkJsmTlIqFlpW&amp;wd=&amp;eqid=cf401d58001be72f00000004641e889b" xr:uid="{3BFAD35F-95F4-4725-B89C-AC6E91F82D2C}"/>
     <hyperlink ref="A22" r:id="rId15" display="http://www.baidu.com/link?url=bEg8i6K8Y3wY8_WvIu2TuqjeYnGrlMV1P0HcR_ssLvZBu2RI2_jzgVDQDe7QEDym" xr:uid="{BA4EF12E-D4FA-45C9-A964-F36F91492D53}"/>
     <hyperlink ref="A16" r:id="rId16" display="https://www.bilibili.com/video/BV1jL4y1F7yx/" xr:uid="{5D5B8DCF-704D-4AE7-A09A-4EAB6F233363}"/>
+    <hyperlink ref="B8" r:id="rId17" tooltip="2.0官方教程" xr:uid="{C773D639-4CC0-4C95-8530-66318CA51108}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId18"/>
 </worksheet>
 </file>
--- a/_sync/AI学习资源.xlsx
+++ b/_sync/AI学习资源.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F567391D-BCFE-4951-A66D-E342626F492B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331DA555-F8A4-49FD-A5D4-FD7BDC0540C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>PyTorch 中文教程&amp; 文档 - ApacheCN</t>
   </si>
@@ -144,6 +144,14 @@
   </si>
   <si>
     <t>2.0官方教程</t>
+  </si>
+  <si>
+    <t>数据集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laion.ai/blog/laion-5b/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,6 +622,16 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -636,8 +654,9 @@
     <hyperlink ref="A22" r:id="rId15" display="http://www.baidu.com/link?url=bEg8i6K8Y3wY8_WvIu2TuqjeYnGrlMV1P0HcR_ssLvZBu2RI2_jzgVDQDe7QEDym" xr:uid="{BA4EF12E-D4FA-45C9-A964-F36F91492D53}"/>
     <hyperlink ref="A16" r:id="rId16" display="https://www.bilibili.com/video/BV1jL4y1F7yx/" xr:uid="{5D5B8DCF-704D-4AE7-A09A-4EAB6F233363}"/>
     <hyperlink ref="B8" r:id="rId17" tooltip="2.0官方教程" xr:uid="{C773D639-4CC0-4C95-8530-66318CA51108}"/>
+    <hyperlink ref="A29" r:id="rId18" xr:uid="{6F75CAAE-E4B0-4FE8-9E62-78147E8B0086}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/_sync/AI学习资源.xlsx
+++ b/_sync/AI学习资源.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331DA555-F8A4-49FD-A5D4-FD7BDC0540C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4710C20-5316-49FF-8D32-704C77EE8532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PyTorch 中文教程&amp; 文档 - ApacheCN</t>
   </si>
@@ -152,6 +152,9 @@
   <si>
     <t>https://laion.ai/blog/laion-5b/</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenAI强化学习算法高质量实现例子</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,6 +635,11 @@
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +663,9 @@
     <hyperlink ref="A16" r:id="rId16" display="https://www.bilibili.com/video/BV1jL4y1F7yx/" xr:uid="{5D5B8DCF-704D-4AE7-A09A-4EAB6F233363}"/>
     <hyperlink ref="B8" r:id="rId17" tooltip="2.0官方教程" xr:uid="{C773D639-4CC0-4C95-8530-66318CA51108}"/>
     <hyperlink ref="A29" r:id="rId18" xr:uid="{6F75CAAE-E4B0-4FE8-9E62-78147E8B0086}"/>
+    <hyperlink ref="A33" r:id="rId19" xr:uid="{38BF9913-9ADE-4A4E-907F-8C7F4EFA9039}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>